--- a/commodities_gold.xlsx
+++ b/commodities_gold.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1206"/>
+  <dimension ref="A1:K1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42568,6 +42568,356 @@
         <v>4769.065998698251</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1207" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>4767</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>4770</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>4767</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>4769</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>125</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>4775.398478396192</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>4774.746100295804</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>4771.450764542303</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>4768.352798958601</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1208" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>4768</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>4768</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>4768</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>4768</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>4775.398478396192</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>4774.304092580743</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>4770.831918974515</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>4767.48223916688</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1209" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>4768</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>4772</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>4766</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>4768</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>173</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>4775.398478396192</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>4773.780700843762</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>4770.165429102701</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>4767.385791333504</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1210" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>4768</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>4769</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>4765</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>4765</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>173</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>4775.398478396192</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>4773.14372385578</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>4769.394750464863</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>4767.608633066803</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1211" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>4765</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>4765</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>4762</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>4765</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>304</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>4774.818195718219</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>4772.632668174566</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>4769.095406656756</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>4767.686906453442</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1212" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>4765</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>4766</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>4756</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>4758</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1163</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>4774.818195718219</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>4772.084001391907</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>4769.020980824661</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>4767.949525162754</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1213" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>4758</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>4759</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>4757</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>4757</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>282</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>4770.846021343998</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>4771.462155130991</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>4768.893358221579</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>4767.759620130203</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B1214" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>4757</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>4759</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>4753</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>4753</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>486</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>4769.582304009141</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>4771.118912428607</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>4768.906688443882</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>4766.907696104163</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1215" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>4754</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>4756</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>4745</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>4749</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1756</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>4766.856260579263</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>4770.917457626407</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>4768.668352388397</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>4765.72615688333</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1216" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>4748</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>4754</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>4748</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>4751</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>610</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>4766.856260579263</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>4770.693037808991</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>4768.022308339847</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>4764.180925506664</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
